--- a/business-center/wms-center/wms-service/wms-business-returnex/src/main/resources/template/退货处理模板.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-returnex/src/main/resources/template/退货处理模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12450"/>
+    <workbookView windowWidth="18530" windowHeight="7270"/>
   </bookViews>
   <sheets>
     <sheet name="重派数据表" sheetId="3" r:id="rId1"/>
@@ -14,33 +14,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>预报单号</t>
-  </si>
-  <si>
-    <t>处理方式</t>
-  </si>
-  <si>
-    <t>库存优先满足该订单</t>
-  </si>
-  <si>
-    <t>收件人</t>
-  </si>
-  <si>
-    <t>联系电话</t>
-  </si>
-  <si>
-    <t>电子邮箱</t>
-  </si>
-  <si>
-    <t>增值税号</t>
-  </si>
-  <si>
-    <t>COD</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>预报单号
+（必填）</t>
+  </si>
+  <si>
+    <t>处理方式
+（必填）</t>
+  </si>
+  <si>
+    <t>库存优先满足该订单
+（非必填）</t>
+  </si>
+  <si>
+    <t>收件人
+（必填）</t>
+  </si>
+  <si>
+    <t>联系电话
+（非必填）</t>
+  </si>
+  <si>
+    <t>电子邮箱
+（非必填）</t>
+  </si>
+  <si>
+    <t>增值税号
+（非必填）</t>
+  </si>
+  <si>
+    <t>COD
+（非必填）</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>街道</t>
     </r>
     <r>
@@ -51,11 +66,18 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>1</t>
+      <t>1
+（必填）</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>街道</t>
     </r>
     <r>
@@ -65,11 +87,28 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>2</t>
+      <t xml:space="preserve">2
+</t>
     </r>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（非必填）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>城镇</t>
     </r>
     <r>
@@ -80,11 +119,19 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>/城市</t>
+      <t>/城市
+（必填）</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>州</t>
     </r>
     <r>
@@ -95,20 +142,59 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>/省</t>
+      <t>/省
+（必填）</t>
     </r>
   </si>
   <si>
-    <t>国家</t>
-  </si>
-  <si>
-    <t>邮编</t>
-  </si>
-  <si>
-    <t>物流服务</t>
-  </si>
-  <si>
-    <t>备注</t>
+    <t>国家
+（必填）</t>
+  </si>
+  <si>
+    <t>邮编
+（必填）</t>
+  </si>
+  <si>
+    <t>物流服务
+（必填）</t>
+  </si>
+  <si>
+    <t>备注
+（非必填）</t>
+  </si>
+  <si>
+    <t>YBD20220217000003</t>
+  </si>
+  <si>
+    <t>重派</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>Aaaaaa</t>
+  </si>
+  <si>
+    <t>Street1</t>
+  </si>
+  <si>
+    <t>ENG</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>M31 4ED</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>备注：使用该模板之前
+请删除样例数据和此备注。</t>
   </si>
 </sst>
 </file>
@@ -121,7 +207,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -141,6 +227,13 @@
       <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -652,51 +745,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -706,98 +796,101 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -812,6 +905,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1138,29 +1237,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A3:$XFD3 $A2:$XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="2" width="26" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1833333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.3666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5416666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.8166666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6333333333333" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.0916666666667" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.1833333333333" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.4583333333333" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.0916666666667" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5416666666667" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7583333333333" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.3666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1818181818182" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6363636363636" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.3636363636364" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5454545454545" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.8181818181818" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6363636363636" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.0909090909091" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.1818181818182" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.3727272727273" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.4545454545455" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.0909090909091" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5454545454545" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7545454545455" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.3636363636364" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" ht="35" customHeight="1" spans="1:16">
@@ -1211,6 +1310,43 @@
       </c>
       <c r="P1" s="4" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" ht="35" customHeight="1" spans="1:1">
+      <c r="A3" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
